--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt7a-Fzd5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt7a-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Fzd5</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,19 +534,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5056791854134129</v>
+        <v>0.6435753333333333</v>
       </c>
       <c r="H2">
-        <v>0.5056791854134129</v>
+        <v>1.930726</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,31 +558,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>4.72021535715015</v>
+        <v>2.170377</v>
       </c>
       <c r="N2">
-        <v>4.72021535715015</v>
+        <v>4.340754</v>
       </c>
       <c r="O2">
-        <v>0.2539109598758298</v>
+        <v>0.1015511790371702</v>
       </c>
       <c r="P2">
-        <v>0.2539109598758298</v>
+        <v>0.07285982038608425</v>
       </c>
       <c r="Q2">
-        <v>2.38691465677957</v>
+        <v>1.396801101234</v>
       </c>
       <c r="R2">
-        <v>2.38691465677957</v>
+        <v>8.380806607403999</v>
       </c>
       <c r="S2">
-        <v>0.2539109598758298</v>
+        <v>0.1015511790371702</v>
       </c>
       <c r="T2">
-        <v>0.2539109598758298</v>
+        <v>0.07285982038608425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,19 +596,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5056791854134129</v>
+        <v>0.6435753333333333</v>
       </c>
       <c r="H3">
-        <v>0.5056791854134129</v>
+        <v>1.930726</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.80976776352595</v>
+        <v>5.061974333333333</v>
       </c>
       <c r="N3">
-        <v>3.80976776352595</v>
+        <v>15.185923</v>
       </c>
       <c r="O3">
-        <v>0.2049359439237332</v>
+        <v>0.2368480046581279</v>
       </c>
       <c r="P3">
-        <v>0.2049359439237332</v>
+        <v>0.2548966428820674</v>
       </c>
       <c r="Q3">
-        <v>1.926520259274082</v>
+        <v>3.257761818899777</v>
       </c>
       <c r="R3">
-        <v>1.926520259274082</v>
+        <v>29.319856370098</v>
       </c>
       <c r="S3">
-        <v>0.2049359439237332</v>
+        <v>0.2368480046581279</v>
       </c>
       <c r="T3">
-        <v>0.2049359439237332</v>
+        <v>0.2548966428820674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5056791854134129</v>
+        <v>0.6435753333333333</v>
       </c>
       <c r="H4">
-        <v>0.5056791854134129</v>
+        <v>1.930726</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.58071370113964</v>
+        <v>3.815520666666667</v>
       </c>
       <c r="N4">
-        <v>4.58071370113964</v>
+        <v>11.446562</v>
       </c>
       <c r="O4">
-        <v>0.2464068532404745</v>
+        <v>0.1785268745202745</v>
       </c>
       <c r="P4">
-        <v>0.2464068532404745</v>
+        <v>0.1921312406457904</v>
       </c>
       <c r="Q4">
-        <v>2.316371573004353</v>
+        <v>2.455574984890222</v>
       </c>
       <c r="R4">
-        <v>2.316371573004353</v>
+        <v>22.100174864012</v>
       </c>
       <c r="S4">
-        <v>0.2464068532404745</v>
+        <v>0.1785268745202745</v>
       </c>
       <c r="T4">
-        <v>0.2464068532404745</v>
+        <v>0.1921312406457904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5056791854134129</v>
+        <v>0.6435753333333333</v>
       </c>
       <c r="H5">
-        <v>0.5056791854134129</v>
+        <v>1.930726</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -738,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.11321536901337</v>
+        <v>4.666218666666667</v>
       </c>
       <c r="N5">
-        <v>3.11321536901337</v>
+        <v>13.998656</v>
       </c>
       <c r="O5">
-        <v>0.1674668299718481</v>
+        <v>0.2183307357409577</v>
       </c>
       <c r="P5">
-        <v>0.1674668299718481</v>
+        <v>0.2349682939430755</v>
       </c>
       <c r="Q5">
-        <v>1.574288211819199</v>
+        <v>3.003063233806222</v>
       </c>
       <c r="R5">
-        <v>1.574288211819199</v>
+        <v>27.027569104256</v>
       </c>
       <c r="S5">
-        <v>0.1674668299718481</v>
+        <v>0.2183307357409577</v>
       </c>
       <c r="T5">
-        <v>0.1674668299718481</v>
+        <v>0.2349682939430755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5056791854134129</v>
+        <v>0.6435753333333333</v>
       </c>
       <c r="H6">
-        <v>0.5056791854134129</v>
+        <v>1.930726</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +803,96 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.36612960751815</v>
+        <v>3.288577</v>
       </c>
       <c r="N6">
-        <v>2.36612960751815</v>
+        <v>9.865731</v>
       </c>
       <c r="O6">
-        <v>0.1272794129881144</v>
+        <v>0.1538713650690733</v>
       </c>
       <c r="P6">
-        <v>0.1272794129881144</v>
+        <v>0.1655968959856798</v>
       </c>
       <c r="Q6">
-        <v>1.196502492512337</v>
+        <v>2.116447038967333</v>
       </c>
       <c r="R6">
-        <v>1.196502492512337</v>
+        <v>19.048023350706</v>
       </c>
       <c r="S6">
-        <v>0.1272794129881144</v>
+        <v>0.1538713650690733</v>
       </c>
       <c r="T6">
-        <v>0.1272794129881144</v>
+        <v>0.1655968959856798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6435753333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.930726</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.3695805</v>
+      </c>
+      <c r="N7">
+        <v>4.739161</v>
+      </c>
+      <c r="O7">
+        <v>0.1108718409743963</v>
+      </c>
+      <c r="P7">
+        <v>0.07954710615730251</v>
+      </c>
+      <c r="Q7">
+        <v>1.525003560147667</v>
+      </c>
+      <c r="R7">
+        <v>9.150021360886001</v>
+      </c>
+      <c r="S7">
+        <v>0.1108718409743963</v>
+      </c>
+      <c r="T7">
+        <v>0.07954710615730251</v>
       </c>
     </row>
   </sheetData>
